--- a/results/I3_N5_M3_T30_C100_DepLowerLeft_s3_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepLowerLeft_s3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>323.3229976553407</v>
+        <v>385.380388819194</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.342999935150146</v>
+        <v>1.144999980926514</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.22299765533657</v>
+        <v>41.38038881919396</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4939635614091388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4939635614091388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>210.8100000000041</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.28999999999999</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,17 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -678,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -791,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -885,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24.22809649842574</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>22.35722294236247</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17.19240925504744</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23.42811290419563</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -955,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,20 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>111.6949999999996</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>104.8850000000015</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -1120,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>111.7350000000005</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -1131,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>119.5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1142,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>114.6849999999993</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -1153,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.68999999999927</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
@@ -1164,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.85999999999964</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1175,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.12999999999934</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
@@ -1186,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.87499999999977</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1197,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.54000000000066</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17">
@@ -1208,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
@@ -1219,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999985</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
@@ -1230,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -1241,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
@@ -1252,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
@@ -1263,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.0100000000007</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1274,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>107.7850000000004</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1285,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>116.8050000000017</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1296,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>101.3099999999998</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1307,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.9949999999995</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1318,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>45.97500000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1329,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>45.44500000000073</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
@@ -1340,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>42.36000000000072</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -1351,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>55.32000000000073</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31">
@@ -1362,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>51.5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
@@ -1373,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>85.68999999999869</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33">
@@ -1384,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>96.85999999999876</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34">
@@ -1395,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>81.1299999999992</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35">
@@ -1406,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>89.875</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
@@ -1417,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>86.54000000000087</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37">
@@ -1428,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>111.6949999999997</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38">
@@ -1439,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>104.885000000002</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
@@ -1450,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>111.7350000000006</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40">
@@ -1461,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>119.5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
@@ -1472,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>114.6849999999995</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42">
@@ -1483,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>107.0100000000002</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43">
@@ -1494,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>107.7849999999999</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
@@ -1505,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>116.8050000000017</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45">
@@ -1516,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>101.3099999999995</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46">
@@ -1527,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>109.994999999999</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1585,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1596,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1607,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1618,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1629,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11.69499999999971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1640,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>4.885000000002037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1651,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>11.73500000000058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1662,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1673,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.68499999999949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1684,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.010000000000218</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -1695,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.784999999999854</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -1706,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>16.80500000000168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1717,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>1.309999999999491</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -1728,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>9.994999999998981</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1885,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1896,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1907,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1918,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1929,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1940,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1951,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1962,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1973,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1984,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2080,7 +2055,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2091,7 +2066,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2102,7 +2077,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2113,7 +2088,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2124,7 +2099,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2135,7 +2110,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2146,7 +2121,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2157,7 +2132,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2168,7 +2143,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2179,7 +2154,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
